--- a/data/P20versusRestIncomeTrendsSAS.xlsx
+++ b/data/P20versusRestIncomeTrendsSAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86544C0C-9042-485C-83DA-6CDD6A5A34D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{796D9ADB-8494-4858-8757-F8666FA22523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="1" activeTab="6" xr2:uid="{6BDA91D3-1D09-4EA8-9C81-14493C36E3BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="1" activeTab="6" xr2:uid="{600AF47F-904D-4A57-8EC8-480208BD45F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Bangladesh" sheetId="2" r:id="rId1"/>
@@ -143,7 +143,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63DFF4B-B592-4D07-A595-7D812175AA91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D76A340-8A87-4D96-8277-1FCCD3E23F0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -201,7 +201,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE6E7EC-46B4-47D5-8069-5C9530A0C917}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B87C4F-234B-4134-A5F6-D1C7044C7650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -259,7 +259,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B622332A-8CFE-49F2-A9C3-AD189C6B3A12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A22717-47ED-4B39-8FBE-D4D9E0FB27FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -317,7 +317,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA7549B-F63F-4784-8D07-F73D965D5604}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A1419B-BDC7-4178-B8B5-6801E3702DCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -375,7 +375,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCE6EDC-DD35-47E7-BCF8-84DABCC2D359}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91D98AC-0EEA-4F7D-B1E5-B2C96DA0DF9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -433,7 +433,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143EE4CB-5F26-43DB-B942-F0031C21C0C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB09622-B57D-4017-BFD1-F57A5D4B2A51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -491,7 +491,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399B4678-450C-4CD0-B905-6A328FA53181}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4018A618-5C73-46CC-B6C4-463B399F0D28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5132C377-C5AA-472E-9EB9-9546777C6A28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF5A0A-0A22-4DDD-AC47-3BB3A2188975}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1063,7 +1063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310B4515-52A0-47C5-BA15-7B60EB48F97F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CB2C9F-9000-45C0-A33F-83E6E2E65FE4}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1301,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC7C13E-1504-402C-839B-12E9E0996410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822F2246-FEBC-4FBE-9EC9-14079FC90F27}">
   <dimension ref="I1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6999,7 +6999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FBB55B-D367-4747-B84E-A0216F2A2FF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEC1B9E-FCE7-4E4A-A411-2CB8E912F150}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7237,7 +7237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CDFD8D-691B-4D5C-A32B-8DF1C41776DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF038A62-99F3-4A9A-91AB-A0EE02965074}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7475,7 +7475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E1A14E-86EF-410E-85BE-3A220F6F07B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA60CAF-5ECD-46D4-B7B0-8927750970CA}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7713,7 +7713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AFD8EF-8ED3-4D14-BD10-C59D4C4F065F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB2F185-40DA-4889-A290-E60EF22A5867}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/data/P20versusRestIncomeTrendsSAS.xlsx
+++ b/data/P20versusRestIncomeTrendsSAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{796D9ADB-8494-4858-8757-F8666FA22523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DA54AD-36F9-481B-B70D-86F42F6A236E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="1" activeTab="6" xr2:uid="{600AF47F-904D-4A57-8EC8-480208BD45F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="1" activeTab="6" xr2:uid="{95E8BF9A-E69E-435C-9239-88026AF6D7B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bangladesh" sheetId="2" r:id="rId1"/>
@@ -143,7 +143,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D76A340-8A87-4D96-8277-1FCCD3E23F0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D587ECB6-99FC-4F58-A721-92EE960FE833}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -201,7 +201,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B87C4F-234B-4134-A5F6-D1C7044C7650}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66A8D9E-444B-41CB-ADE2-6EC0847A495F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -259,7 +259,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A22717-47ED-4B39-8FBE-D4D9E0FB27FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6985332-4D92-4522-95B7-9230DED8A94E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -317,7 +317,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A1419B-BDC7-4178-B8B5-6801E3702DCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD84BBF-8869-484A-BC57-8DF5E1370425}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -375,7 +375,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91D98AC-0EEA-4F7D-B1E5-B2C96DA0DF9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A7CA4C-6D8D-47D4-A4B3-ED635D21CD6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -433,7 +433,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB09622-B57D-4017-BFD1-F57A5D4B2A51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543B45CA-6797-47FF-8734-32F6DA0FFC90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -491,7 +491,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4018A618-5C73-46CC-B6C4-463B399F0D28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773434D9-F662-4A9B-B45D-C04E1D79EB99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF5A0A-0A22-4DDD-AC47-3BB3A2188975}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8271DBD6-36D7-4B3D-A623-5E920F862844}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1063,7 +1063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CB2C9F-9000-45C0-A33F-83E6E2E65FE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086E9150-C0FA-4558-99B8-DDB5DA989431}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1301,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822F2246-FEBC-4FBE-9EC9-14079FC90F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECDF6AC-F940-454A-8A93-45D881E5DC28}">
   <dimension ref="I1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6999,7 +6999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEC1B9E-FCE7-4E4A-A411-2CB8E912F150}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F17A991-9B4D-4E4B-A828-79CCDBC1E718}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7237,7 +7237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF038A62-99F3-4A9A-91AB-A0EE02965074}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C699BF6B-F49C-4B5D-AD54-FBEF3DEDF69E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7475,7 +7475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA60CAF-5ECD-46D4-B7B0-8927750970CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091674C8-0BE7-4D16-933B-1869AB1B7AC6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7713,7 +7713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB2F185-40DA-4889-A290-E60EF22A5867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F13CACC-6CAF-404D-96F7-FC8BB9F78F65}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
